--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 58400-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 58400-2021.xlsx", "A 58400-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 58400-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 58400-2021.png", "A 58400-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 58400-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 58400-2021.docx", "A 58400-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 58400-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 58400-2021.docx", "A 58400-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 58400-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 58400-2021.docx", "A 58400-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 58400-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 58400-2021.docx", "A 58400-2021")</f>
         <v/>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 10801-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 10801-2019.xlsx", "A 10801-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 10801-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 10801-2019.png", "A 10801-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 10801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 10801-2019.docx", "A 10801-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 10801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 10801-2019.docx", "A 10801-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 10801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 10801-2019.docx", "A 10801-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 10801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 10801-2019.docx", "A 10801-2019")</f>
         <v/>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,27 +799,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 13511-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 13511-2019.xlsx", "A 13511-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 13511-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 13511-2019.png", "A 13511-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 13511-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 13511-2019.docx", "A 13511-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 13511-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 13511-2019.docx", "A 13511-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 13511-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 13511-2019.docx", "A 13511-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 13511-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 13511-2019.docx", "A 13511-2019")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 43407-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 43407-2020.xlsx", "A 43407-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 43407-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 43407-2020.png", "A 43407-2020")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/knärot/A 43407-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/knärot/A 43407-2020.png", "A 43407-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 43407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 43407-2020.docx", "A 43407-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 43407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 43407-2020.docx", "A 43407-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 43407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 43407-2020.docx", "A 43407-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 43407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 43407-2020.docx", "A 43407-2020")</f>
         <v/>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 14475-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 14475-2019.xlsx", "A 14475-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 14475-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 14475-2019.png", "A 14475-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 14475-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 14475-2019.docx", "A 14475-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 14475-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 14475-2019.docx", "A 14475-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 14475-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 14475-2019.docx", "A 14475-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 14475-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 14475-2019.docx", "A 14475-2019")</f>
         <v/>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 16031-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 16031-2020.xlsx", "A 16031-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 16031-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 16031-2020.png", "A 16031-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 16031-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 16031-2020.docx", "A 16031-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 16031-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 16031-2020.docx", "A 16031-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 16031-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 16031-2020.docx", "A 16031-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 16031-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 16031-2020.docx", "A 16031-2020")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1144,27 +1144,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 22217-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 22217-2020.xlsx", "A 22217-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 22217-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 22217-2020.png", "A 22217-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 22217-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 22217-2020.docx", "A 22217-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 22217-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 22217-2020.docx", "A 22217-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 22217-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 22217-2020.docx", "A 22217-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 22217-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 22217-2020.docx", "A 22217-2020")</f>
         <v/>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,27 +1229,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 49591-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 49591-2020.xlsx", "A 49591-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 49591-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 49591-2020.png", "A 49591-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 49591-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 49591-2020.docx", "A 49591-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 49591-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 49591-2020.docx", "A 49591-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 49591-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 49591-2020.docx", "A 49591-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 49591-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 49591-2020.docx", "A 49591-2020")</f>
         <v/>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1314,27 +1314,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 1734-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 1734-2022.xlsx", "A 1734-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 1734-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 1734-2022.png", "A 1734-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 1734-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 1734-2022.docx", "A 1734-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 1734-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 1734-2022.docx", "A 1734-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 1734-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 1734-2022.docx", "A 1734-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 1734-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 1734-2022.docx", "A 1734-2022")</f>
         <v/>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1404,27 +1404,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 56590-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 56590-2022.xlsx", "A 56590-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 56590-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 56590-2022.png", "A 56590-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 56590-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 56590-2022.docx", "A 56590-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 56590-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 56590-2022.docx", "A 56590-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 56590-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 56590-2022.docx", "A 56590-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 56590-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 56590-2022.docx", "A 56590-2022")</f>
         <v/>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1494,27 +1494,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 30202-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/artfynd/A 30202-2023.xlsx", "A 30202-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 30202-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/kartor/A 30202-2023.png", "A 30202-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 30202-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomål/A 30202-2023.docx", "A 30202-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 30202-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/klagomålsmail/A 30202-2023.docx", "A 30202-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 30202-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsyn/A 30202-2023.docx", "A 30202-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 30202-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KRISTINEHAMN/tillsynsmail/A 30202-2023.docx", "A 30202-2023")</f>
         <v/>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y506"/>
+  <dimension ref="A1:Y507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
       </c>
       <c r="R505" s="2" t="inlineStr"/>
     </row>
-    <row r="506">
+    <row r="506" ht="15" customHeight="1">
       <c r="A506" t="inlineStr">
         <is>
           <t>A 38416-2023</t>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29980,6 +29980,63 @@
         <v>0</v>
       </c>
       <c r="R506" s="2" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>A 47371-2023</t>
+        </is>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C507" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>KRISTINEHAMN</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N507" t="n">
+        <v>0</v>
+      </c>
+      <c r="O507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R507" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         <v>45202</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>

--- a/Översikt KRISTINEHAMN.xlsx
+++ b/Översikt KRISTINEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>44488</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43514</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44081</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43536</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43915</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43955</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44105</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44574</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44893</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43326</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43333</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43360</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43388</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43389</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43390</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43390</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43390</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43399</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43399</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43406</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>43409</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>43409</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>43410</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>43410</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>43416</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43424</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>43437</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43439</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43441</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43441</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43441</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43448</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43475</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43479</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43480</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43486</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43486</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43489</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43489</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43493</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43501</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43503</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43504</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43504</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43504</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43514</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43514</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43514</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43514</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43514</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43515</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43529</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43530</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43531</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43531</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43531</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43532</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43535</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43540</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>43552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43559</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43563</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>43563</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43565</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>43567</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>43573</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>43577</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>43577</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>43580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43604</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>43604</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>43604</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43623</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43628</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43640</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>43643</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>43643</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>43643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         <v>43643</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43644</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>43650</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>43663</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>43668</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43682</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43689</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43689</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43690</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43691</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43696</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43705</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>43713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43721</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43726</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>43748</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43755</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43759</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43759</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>43763</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43763</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>43763</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43767</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>43777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>43781</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43789</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43796</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43798</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43801</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43802</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43802</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43802</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43806</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>43818</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>43818</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43818</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43818</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43818</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43829</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43838</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43839</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43842</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43842</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43843</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43844</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43846</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43853</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>43857</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>43861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>43864</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43864</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43865</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43868</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43872</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43873</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43873</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43873</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43874</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43874</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43882</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43885</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43885</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43892</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43894</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43897</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43898</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43899</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43901</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43902</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43905</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43906</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43906</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43907</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43909</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43909</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43914</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43914</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43915</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43915</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43915</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43915</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43917</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>43917</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>43920</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>43920</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>43920</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>43920</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43921</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43925</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43930</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43930</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43930</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43930</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43943</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43949</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43955</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43955</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43955</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43955</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>43956</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>43971</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>43980</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>43980</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>43980</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>43983</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>43994</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>43998</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>43999</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>44028</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>44029</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>44041</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>44064</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44064</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44064</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44067</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44069</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44069</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44077</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44077</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44080</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44080</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44081</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44081</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44089</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44089</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44090</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>44090</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44090</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44090</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44096</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44098</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>44098</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>44105</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44110</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>44111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44118</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44123</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44133</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>44133</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44133</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44141</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44141</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44141</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>44141</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>44144</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         <v>44156</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44156</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44158</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44159</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>44159</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>44159</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>44159</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44168</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44181</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44193</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44194</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44195</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44200</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44210</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44210</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44210</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44210</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44234</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44236</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44245</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44256</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44256</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44256</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44256</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44256</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44256</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44256</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44256</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44256</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44258</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44265</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44285</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44303</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44309</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44335</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44337</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44347</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44351</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>44354</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>44354</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44355</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>44365</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44377</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44379</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44380</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44388</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44413</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>44413</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44413</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>44413</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>44419</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44421</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44424</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>44426</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44431</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44441</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>44446</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>44448</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44448</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44448</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44448</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>44449</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44449</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44452</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>44454</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>44454</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>44454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>44455</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44462</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>44466</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>44466</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44468</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44470</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44473</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>44474</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44480</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>44497</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>44497</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>44501</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
         <v>44501</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21470,7 +21470,7 @@
         <v>44502</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21527,7 +21527,7 @@
         <v>44504</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44504</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>44518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44525</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>44525</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>44525</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44526</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>44526</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>44533</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>44536</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>44551</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44557</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44559</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44576</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44576</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44577</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44588</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44588</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44595</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>44595</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>44596</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22848,7 +22848,7 @@
         <v>44614</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44634</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>44648</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23019,7 +23019,7 @@
         <v>44651</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23076,7 +23076,7 @@
         <v>44651</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
         <v>44651</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44656</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>44657</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>44657</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44659</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44662</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44662</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44662</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44677</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>44677</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44680</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>44683</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44683</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44683</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44700</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44706</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44706</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>44707</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44707</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44712</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44722</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44722</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44722</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>44739</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>44741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44741</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>44742</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44742</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44746</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44770</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44805</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44810</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44812</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44823</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44825</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44831</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44831</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44834</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44839</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44839</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         <v>44841</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44843</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>44847</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>44851</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44853</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>44861</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44883</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44888</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>44894</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>44902</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26189,7 +26189,7 @@
         <v>44917</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>44917</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26303,7 +26303,7 @@
         <v>44917</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44917</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44917</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>44918</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44923</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44935</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44936</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44937</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>44941</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44951</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44951</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44957</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44957</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>44957</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>44959</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44972</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44972</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>44991</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>44992</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>44995</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45000</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45000</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45002</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45035</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45041</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45044</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45063</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>45068</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28147,7 +28147,7 @@
         <v>45072</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28204,7 +28204,7 @@
         <v>45072</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>45076</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>45079</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45081</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45081</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45081</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45082</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45085</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45085</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45092</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45097</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45098</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45104</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45110</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45110</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45110</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45112</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45113</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45114</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45118</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45119</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45121</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45127</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45141</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45141</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>45154</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>45160</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45161</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45162</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         <v>45202</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
